--- a/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases.xlsx
+++ b/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\git-ΤΛ\nomnomr\docs\contributions\AthanasiaZ\Writing-Charts\Phase6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB1502C4-7EE8-4734-AC35-4C14A78CDC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23548F9-BB6B-4D40-A82E-7748A9C660A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9560D621-A71A-4FED-9B46-A878053B0129}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="167">
   <si>
     <t>Αναμενόμενο Αποτέλεσμα</t>
   </si>
@@ -649,6 +649,109 @@
   <si>
     <t>1. Πληκτρολογούμε 3 ψηφία 
 στο πεδίο CVV κάρτας.</t>
+  </si>
+  <si>
+    <t>TC_SearchShop_01</t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης αναζητήσει 
+συγκεκριμένο Κατάστημα
+το οποίο δεν είναι διαθέσιμο, 
+δεν θα μπορέσει να το επιλέξει;</t>
+  </si>
+  <si>
+    <t>1. Πληκτρολογούμε όνομα
+Καταστήματος και επιλέγουμε 
+Αναζήτηση.</t>
+  </si>
+  <si>
+    <t>2. Εμφάνιση λίστας Καταστημά-
+των που εμπεριέχουν το όνομα
+αυτό στον τίτλο τους, το επιθυμητό Κατάστημα δεν είναι διαθέσιμο.</t>
+  </si>
+  <si>
+    <t>2. Επιλέγουμε το επιθυμητό 
+Κατάστημα.</t>
+  </si>
+  <si>
+    <t>Λίστα Διαθέσιμων
+Καταστημάτων: UI
+ΜΠΑΜΠΗΣ</t>
+  </si>
+  <si>
+    <t>Ο Πελάτης βλέπει το Κατάστημα
+γκρί και μη επιλέξιμο.</t>
+  </si>
+  <si>
+    <t>1. Εμφάνιση πλαισίου αναζήτησης
+Καταστήματος στο πάνω μέρος της Λίστας Διαθέσιμων Καταστημάτων.</t>
+  </si>
+  <si>
+    <t>Λίστα Καταστημάτων: UI</t>
+  </si>
+  <si>
+    <t>TC_MinimumOrder_01</t>
+  </si>
+  <si>
+    <t>Κόστος Καλαθιού σε ευρώ:
+4 
+Άκυρη Τιμή</t>
+  </si>
+  <si>
+    <t>1. Εμφάνιση του καλαθιού του 
+Πελάτη με συνολικό κόστος 4
+ευρώ.</t>
+  </si>
+  <si>
+    <t>Αν το ελάχιστο κόστος παραγγελίας που έχει ορίσει ένα Κατάστημα είναι 5 ευρώ και ο Πελάτης έχει στο καλάθι του αντικείμενα κόστους 4 ευρώ, θα του εμφανιστεί κατάλληλο μήνυμα;</t>
+  </si>
+  <si>
+    <t>1. Επιλέγουμε Αποστολή Παραγγελίας.</t>
+  </si>
+  <si>
+    <t>Επισκόπηση Καλαθιού:
+UI</t>
+  </si>
+  <si>
+    <t>Μήνυμα μη αντιστοιχίας 
+ελάχιστου κόστους παραγγελίας
+με υπάρχον κόστος καλαθιού.</t>
+  </si>
+  <si>
+    <t>TC_MinimumOrder_02</t>
+  </si>
+  <si>
+    <t>Αν το ελάχιστο κόστος παραγγελίας που έχει ορίσει ένα Κατάστημα είναι 5 ευρώ και ο Πελάτης έχει στο καλάθι του αντικείμενα κόστους 5 ευρώ, θα μπορέσει να αποστείλει την παραγγελία του επιτυχώς;</t>
+  </si>
+  <si>
+    <t>Κόστος Καλαθιού σε ευρώ:
+5 
+Κάτω Όριο</t>
+  </si>
+  <si>
+    <t>1. Εμφάνιση του καλαθιού του 
+Πελάτη με συνολικό κόστος 5
+ευρώ.</t>
+  </si>
+  <si>
+    <t>Ο Πελάτης στέλνει την 
+παραγγελία του επιτυχώς.</t>
+  </si>
+  <si>
+    <t>TC_MinimumOrder_03</t>
+  </si>
+  <si>
+    <t>Αν το ελάχιστο κόστος παραγγελίας που έχει ορίσει ένα Κατάστημα είναι 10 ευρώ και ο Πελάτης έχει στο καλάθι του αντικείμενα κόστους 5 ευρώ, θα μπορέσει να αποστείλει την παραγγελία του επιτυχώς;</t>
+  </si>
+  <si>
+    <t>Κόστος Καλαθιού σε ευρώ:
+10 
+Έγκυρη Τιμή</t>
+  </si>
+  <si>
+    <t>1. Εμφάνιση του καλαθιού του 
+Πελάτη με συνολικό κόστος 10
+ευρώ.</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2931A8B3-73A4-401C-858F-6C111952F06B}">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1891,6 +1994,124 @@
       </c>
     </row>
     <row r="62" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="E64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases.xlsx
+++ b/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\git-ΤΛ\nomnomr\docs\contributions\AthanasiaZ\Writing-Charts\Phase6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23548F9-BB6B-4D40-A82E-7748A9C660A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4B285A-24A7-4145-AB7C-81245AFE79DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9560D621-A71A-4FED-9B46-A878053B0129}"/>
   </bookViews>
@@ -674,11 +674,6 @@
 Κατάστημα.</t>
   </si>
   <si>
-    <t>Λίστα Διαθέσιμων
-Καταστημάτων: UI
-ΜΠΑΜΠΗΣ</t>
-  </si>
-  <si>
     <t>Ο Πελάτης βλέπει το Κατάστημα
 γκρί και μη επιλέξιμο.</t>
   </si>
@@ -752,6 +747,12 @@
     <t>1. Εμφάνιση του καλαθιού του 
 Πελάτη με συνολικό κόστος 10
 ευρώ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Λίστα Διαθέσιμων
+Καταστημάτων: UI
+El Canto Savor
+</t>
   </si>
 </sst>
 </file>
@@ -1163,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2931A8B3-73A4-401C-858F-6C111952F06B}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,7 +1995,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>142</v>
       </c>
@@ -2008,13 +2009,13 @@
         <v>9</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>144</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -2025,91 +2026,91 @@
         <v>146</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:8" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F66" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="H66" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="68" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>165</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F70" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G70" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="H70" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
